--- a/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="271">
   <si>
     <t>PERIOD</t>
   </si>
@@ -860,6 +860,12 @@
   </si>
   <si>
     <t>UT(0-7-2)</t>
+  </si>
+  <si>
+    <t>UT(0-2-20)</t>
+  </si>
+  <si>
+    <t>UT(0-2-47)</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1890,7 @@
   <dimension ref="A2:K416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A354" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A348" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="F365" sqref="F365"/>
     </sheetView>
@@ -2053,7 +2059,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>175.541</v>
+        <v>174.90099999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -9657,11 +9663,15 @@
       <c r="A355" s="40">
         <v>44652</v>
       </c>
-      <c r="B355" s="20"/>
+      <c r="B355" s="20" t="s">
+        <v>270</v>
+      </c>
       <c r="C355" s="13">
         <v>1.25</v>
       </c>
-      <c r="D355" s="39"/>
+      <c r="D355" s="39">
+        <v>0.34799999999999998</v>
+      </c>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
       <c r="G355" s="13">
@@ -9677,11 +9687,15 @@
       <c r="A356" s="40">
         <v>44682</v>
       </c>
-      <c r="B356" s="20"/>
+      <c r="B356" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="C356" s="13">
         <v>1.25</v>
       </c>
-      <c r="D356" s="39"/>
+      <c r="D356" s="39">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
       <c r="G356" s="13">
@@ -10984,14 +10998,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.879</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11040,7 +11054,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>479.416</v>
+        <v>478.77599999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="272">
   <si>
     <t>PERIOD</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>UT(0-2-47)</t>
+  </si>
+  <si>
+    <t>UT(0-2-37)</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K416" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K416"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K417" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K417"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1887,12 +1890,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K416"/>
+  <dimension ref="A2:K417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A348" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A363" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F365" sqref="F365"/>
+      <selection pane="bottomLeft" activeCell="K382" sqref="K382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2062,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.90099999999998</v>
+        <v>176.07399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2069,7 +2072,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>303.875</v>
+        <v>306.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9660,23 +9663,19 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C355" s="13">
-        <v>1.25</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="C355" s="13"/>
       <c r="D355" s="39">
-        <v>0.34799999999999998</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
@@ -9685,16 +9684,16 @@
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
       </c>
       <c r="D356" s="39">
-        <v>0.29199999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
@@ -9709,16 +9708,16 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
       </c>
       <c r="D357" s="39">
-        <v>0.879</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
@@ -9733,15 +9732,17 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="C358" s="13">
         <v>1.25</v>
       </c>
-      <c r="D358" s="39"/>
+      <c r="D358" s="39">
+        <v>0.879</v>
+      </c>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
       <c r="G358" s="13">
@@ -9751,70 +9752,68 @@
       <c r="H358" s="39"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="48">
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="40">
         <v>44743</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C359" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H359" s="39">
-        <v>1</v>
-      </c>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
-      <c r="K359" s="20" t="s">
-        <v>80</v>
+      <c r="K359" s="48">
+        <v>44743</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="C360" s="13"/>
-      <c r="D360" s="39">
-        <v>0.35799999999999998</v>
-      </c>
+      <c r="D360" s="39"/>
       <c r="E360" s="9"/>
       <c r="F360" s="20"/>
       <c r="G360" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H360" s="39"/>
+      <c r="H360" s="39">
+        <v>1</v>
+      </c>
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
-      <c r="K360" s="20"/>
+      <c r="K360" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="C361" s="13">
-        <v>1.25</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C361" s="13"/>
       <c r="D361" s="39">
-        <v>0.19600000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
@@ -9823,16 +9822,16 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
       </c>
       <c r="D362" s="39">
-        <v>1</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
@@ -9843,86 +9842,88 @@
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="48">
-        <v>44813</v>
-      </c>
+      <c r="K362" s="20"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40"/>
+      <c r="A363" s="40">
+        <v>44805</v>
+      </c>
       <c r="B363" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C363" s="13"/>
+        <v>264</v>
+      </c>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="39">
-        <v>1.165</v>
+        <v>1</v>
       </c>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
       <c r="J363" s="11"/>
-      <c r="K363" s="48"/>
+      <c r="K363" s="48">
+        <v>44813</v>
+      </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C364" s="13">
-        <v>1.25</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C364" s="13"/>
       <c r="D364" s="39">
-        <v>1</v>
+        <v>1.165</v>
       </c>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
-      <c r="K364" s="48">
-        <v>44838</v>
-      </c>
+      <c r="K364" s="48"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="40"/>
+      <c r="A365" s="40">
+        <v>44835</v>
+      </c>
       <c r="B365" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C365" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="20" t="s">
-        <v>86</v>
+      <c r="K365" s="48">
+        <v>44838</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="C366" s="13"/>
       <c r="D366" s="39">
-        <v>0.28999999999999998</v>
+        <v>2</v>
       </c>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
@@ -9933,26 +9934,24 @@
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
+      <c r="K366" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C367" s="13">
-        <v>1.25</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C367" s="13"/>
       <c r="D367" s="39">
-        <v>0.21000000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
@@ -9961,16 +9960,16 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B368" s="20" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="C368" s="13">
         <v>1.25</v>
       </c>
       <c r="D368" s="39">
-        <v>2</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
@@ -9984,19 +9983,23 @@
       <c r="K368" s="20"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="40"/>
+      <c r="A369" s="40">
+        <v>44896</v>
+      </c>
       <c r="B369" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C369" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="C369" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D369" s="39">
-        <v>0.47099999999999997</v>
+        <v>2</v>
       </c>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G369" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
@@ -10004,12 +10007,14 @@
       <c r="K369" s="20"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B370" s="20"/>
+      <c r="A370" s="40"/>
+      <c r="B370" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="C370" s="13"/>
-      <c r="D370" s="39"/>
+      <c r="D370" s="39">
+        <v>0.47099999999999997</v>
+      </c>
       <c r="E370" s="9"/>
       <c r="F370" s="20"/>
       <c r="G370" s="13" t="str">
@@ -10022,40 +10027,36 @@
       <c r="K370" s="20"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B371" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C371" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D371" s="39">
-        <v>1</v>
-      </c>
+      <c r="A371" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="39"/>
       <c r="E371" s="9"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H371" s="39"/>
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
-      <c r="K371" s="48">
-        <v>44950</v>
-      </c>
+      <c r="K371" s="20"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B372" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B372" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C372" s="13">
         <v>1.25</v>
       </c>
-      <c r="D372" s="39"/>
+      <c r="D372" s="39">
+        <v>1</v>
+      </c>
       <c r="E372" s="9"/>
       <c r="F372" s="20"/>
       <c r="G372" s="13">
@@ -10065,21 +10066,19 @@
       <c r="H372" s="39"/>
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
-      <c r="K372" s="20"/>
+      <c r="K372" s="48">
+        <v>44950</v>
+      </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B373" s="20" t="s">
-        <v>79</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B373" s="20"/>
       <c r="C373" s="13">
         <v>1.25</v>
       </c>
-      <c r="D373" s="39">
-        <v>1</v>
-      </c>
+      <c r="D373" s="39"/>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
       <c r="G373" s="13">
@@ -10089,19 +10088,21 @@
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
-      <c r="K373" s="48">
-        <v>45016</v>
-      </c>
+      <c r="K373" s="20"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B374" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B374" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C374" s="13">
         <v>1.25</v>
       </c>
-      <c r="D374" s="39"/>
+      <c r="D374" s="39">
+        <v>1</v>
+      </c>
       <c r="E374" s="9"/>
       <c r="F374" s="20"/>
       <c r="G374" s="13">
@@ -10111,21 +10112,19 @@
       <c r="H374" s="39"/>
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
-      <c r="K374" s="20"/>
+      <c r="K374" s="48">
+        <v>45016</v>
+      </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B375" s="20" t="s">
-        <v>61</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B375" s="20"/>
       <c r="C375" s="13">
         <v>1.25</v>
       </c>
-      <c r="D375" s="39">
-        <v>1</v>
-      </c>
+      <c r="D375" s="39"/>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
       <c r="G375" s="13">
@@ -10135,64 +10134,62 @@
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="48">
-        <v>45051</v>
-      </c>
+      <c r="K375" s="20"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="40"/>
+      <c r="A376" s="40">
+        <v>45047</v>
+      </c>
       <c r="B376" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C376" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C376" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D376" s="39">
         <v>1</v>
       </c>
       <c r="E376" s="9"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G376" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H376" s="39"/>
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="48">
-        <v>45061</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C377" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D377" s="39"/>
+        <v>79</v>
+      </c>
+      <c r="C377" s="13"/>
+      <c r="D377" s="39">
+        <v>1</v>
+      </c>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H377" s="39">
-        <v>2</v>
-      </c>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
-      <c r="K377" s="20" t="s">
-        <v>260</v>
+      <c r="K377" s="48">
+        <v>45061</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C378" s="13">
         <v>1.25</v>
@@ -10205,44 +10202,54 @@
         <v>1.25</v>
       </c>
       <c r="H378" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="48">
-        <v>45135</v>
+      <c r="K378" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B379" s="20"/>
-      <c r="C379" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B379" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C379" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D379" s="39"/>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H379" s="39"/>
+      <c r="G379" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H379" s="39">
+        <v>1</v>
+      </c>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
-      <c r="K379" s="20"/>
+      <c r="K379" s="48">
+        <v>45135</v>
+      </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B380" s="20"/>
-      <c r="C380" s="13"/>
+      <c r="C380" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D380" s="39"/>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G380" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
@@ -10251,16 +10258,18 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B381" s="20"/>
-      <c r="C381" s="13"/>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D381" s="39"/>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
@@ -10269,11 +10278,15 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B382" s="20"/>
+        <v>45200</v>
+      </c>
+      <c r="B382" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="C382" s="13"/>
-      <c r="D382" s="39"/>
+      <c r="D382" s="39">
+        <v>1</v>
+      </c>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
       <c r="G382" s="13" t="str">
@@ -10283,11 +10296,13 @@
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
+      <c r="K382" s="48">
+        <v>45203</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10305,7 +10320,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10323,7 +10338,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10341,7 +10356,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10359,7 +10374,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10377,7 +10392,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10395,7 +10410,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10413,7 +10428,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10431,7 +10446,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10449,7 +10464,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10467,7 +10482,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10485,7 +10500,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10503,7 +10518,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10521,7 +10536,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10539,7 +10554,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10557,7 +10572,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10575,7 +10590,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10593,7 +10608,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10611,7 +10626,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10629,7 +10644,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10647,7 +10662,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10665,7 +10680,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10683,7 +10698,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10701,7 +10716,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10719,7 +10734,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10737,7 +10752,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10755,7 +10770,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10773,7 +10788,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10791,7 +10806,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10808,7 +10823,9 @@
       <c r="K411" s="20"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40"/>
+      <c r="A412" s="40">
+        <v>46113</v>
+      </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
       <c r="D412" s="39"/>
@@ -10872,20 +10889,36 @@
       <c r="K415" s="20"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="41"/>
-      <c r="B416" s="15"/>
-      <c r="C416" s="42"/>
-      <c r="D416" s="43"/>
+      <c r="A416" s="40"/>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="39"/>
       <c r="E416" s="9"/>
-      <c r="F416" s="15"/>
-      <c r="G416" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H416" s="43"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="39"/>
       <c r="I416" s="9"/>
-      <c r="J416" s="12"/>
-      <c r="K416" s="15"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="41"/>
+      <c r="B417" s="15"/>
+      <c r="C417" s="42"/>
+      <c r="D417" s="43"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="15"/>
+      <c r="G417" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H417" s="43"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="12"/>
+      <c r="K417" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11001,11 +11034,11 @@
         <v>2</v>
       </c>
       <c r="F3" s="11">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.34799999999999998</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11054,7 +11087,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>478.77599999999995</v>
+        <v>482.44899999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="275">
   <si>
     <t>PERIOD</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1899,9 +1902,9 @@
   <dimension ref="A2:K420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A369" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A366" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K386" sqref="K386"/>
+      <selection pane="bottomLeft" activeCell="K388" sqref="K388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2071,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.57399999999998</v>
+        <v>177.82399999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2078,7 +2081,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>308.375</v>
+        <v>309.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10379,15 +10382,17 @@
       <c r="B386" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C386" s="13"/>
+      <c r="C386" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D386" s="39">
         <v>1</v>
       </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G386" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H386" s="39"/>
       <c r="I386" s="9"/>
@@ -10418,7 +10423,9 @@
       <c r="A388" s="40">
         <v>45292</v>
       </c>
-      <c r="B388" s="20"/>
+      <c r="B388" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39"/>
       <c r="E388" s="9"/>
@@ -10430,7 +10437,9 @@
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
+      <c r="K388" s="48">
+        <v>45310</v>
+      </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
@@ -11165,7 +11174,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>484.94899999999996</v>
+        <v>487.44899999999996</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -878,6 +878,24 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-2-15)</t>
+  </si>
+  <si>
+    <t>UT(0-0-59)</t>
+  </si>
+  <si>
+    <t>UT(0-0-52)</t>
+  </si>
+  <si>
+    <t>UT(0-5-51)</t>
+  </si>
+  <si>
+    <t>UT(0-3-45)</t>
+  </si>
+  <si>
+    <t>UT(0-5-4)</t>
   </si>
 </sst>
 </file>
@@ -1569,8 +1587,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K420" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K420"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K423"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1899,12 +1917,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K420"/>
+  <dimension ref="A2:K423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A366" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K388" sqref="K388"/>
+      <selection pane="bottomLeft" activeCell="F383" sqref="F383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2089,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>177.82399999999998</v>
+        <v>174.47899999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10246,34 +10264,38 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B380" s="20"/>
-      <c r="C380" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D380" s="39"/>
+      <c r="A380" s="40"/>
+      <c r="B380" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39">
+        <v>0.63300000000000001</v>
+      </c>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="20"/>
+      <c r="K380" s="48"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B381" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B381" s="20" t="s">
+        <v>279</v>
+      </c>
       <c r="C381" s="13">
         <v>1.25</v>
       </c>
-      <c r="D381" s="39"/>
+      <c r="D381" s="39">
+        <v>0.46899999999999997</v>
+      </c>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
       <c r="G381" s="13">
@@ -10287,16 +10309,16 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
       </c>
       <c r="D382" s="39">
-        <v>1</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
@@ -10307,112 +10329,116 @@
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
-      <c r="K382" s="48">
-        <v>45203</v>
-      </c>
+      <c r="K382" s="20"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40"/>
+      <c r="A383" s="40">
+        <v>45200</v>
+      </c>
       <c r="B383" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="C383" s="13"/>
-      <c r="D383" s="39"/>
+        <v>259</v>
+      </c>
+      <c r="C383" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D383" s="39">
+        <v>1</v>
+      </c>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H383" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="G383" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H383" s="39"/>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
       <c r="K383" s="48">
-        <v>45198</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C384" s="13"/>
-      <c r="D384" s="39">
-        <v>1</v>
-      </c>
+      <c r="D384" s="39"/>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
       <c r="G384" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H384" s="39"/>
+      <c r="H384" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
       <c r="K384" s="48">
-        <v>45230</v>
+        <v>45198</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B385" s="20"/>
-      <c r="C385" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D385" s="39"/>
+      <c r="A385" s="40"/>
+      <c r="B385" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39">
+        <v>1</v>
+      </c>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H385" s="39"/>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
-      <c r="K385" s="20"/>
+      <c r="K385" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C386" s="13">
-        <v>1.25</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C386" s="13"/>
       <c r="D386" s="39">
-        <v>1</v>
+        <v>0.10800000000000001</v>
       </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H386" s="39"/>
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
-      <c r="K386" s="48">
-        <v>45273</v>
-      </c>
+      <c r="K386" s="48"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="B387" s="20"/>
-      <c r="C387" s="13"/>
-      <c r="D387" s="39"/>
+      <c r="A387" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B387" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C387" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D387" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G387" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H387" s="39"/>
       <c r="I387" s="9"/>
@@ -10421,33 +10447,39 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C388" s="13"/>
-      <c r="D388" s="39"/>
+        <v>259</v>
+      </c>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D388" s="39">
+        <v>1</v>
+      </c>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
       <c r="K388" s="48">
-        <v>45310</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B389" s="20"/>
+      <c r="A389" s="40"/>
+      <c r="B389" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C389" s="13"/>
-      <c r="D389" s="39"/>
+      <c r="D389" s="39">
+        <v>1.2810000000000001</v>
+      </c>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
       <c r="G389" s="13" t="str">
@@ -10457,11 +10489,11 @@
       <c r="H389" s="39"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="20"/>
+      <c r="K389" s="48"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="40">
-        <v>45352</v>
+      <c r="A390" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10479,9 +10511,11 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B391" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B391" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39"/>
       <c r="E391" s="9"/>
@@ -10493,11 +10527,13 @@
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
-      <c r="K391" s="20"/>
+      <c r="K391" s="48">
+        <v>45310</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10515,7 +10551,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10533,7 +10569,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10551,7 +10587,7 @@
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10569,7 +10605,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10587,7 +10623,7 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10605,7 +10641,7 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10623,7 +10659,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10641,7 +10677,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10659,7 +10695,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10677,7 +10713,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10695,7 +10731,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10713,7 +10749,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10731,7 +10767,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10749,7 +10785,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10767,7 +10803,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10785,7 +10821,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10803,7 +10839,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10821,7 +10857,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10839,7 +10875,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10857,7 +10893,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10875,7 +10911,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10893,7 +10929,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10911,7 +10947,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10928,7 +10964,9 @@
       <c r="K415" s="20"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40"/>
+      <c r="A416" s="40">
+        <v>46054</v>
+      </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
@@ -10944,7 +10982,9 @@
       <c r="K416" s="20"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="40"/>
+      <c r="A417" s="40">
+        <v>46082</v>
+      </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
       <c r="D417" s="39"/>
@@ -10960,7 +11000,9 @@
       <c r="K417" s="20"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40"/>
+      <c r="A418" s="40">
+        <v>46113</v>
+      </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
       <c r="D418" s="39"/>
@@ -10992,20 +11034,68 @@
       <c r="K419" s="20"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="41"/>
-      <c r="B420" s="15"/>
-      <c r="C420" s="42"/>
-      <c r="D420" s="43"/>
+      <c r="A420" s="40"/>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="39"/>
       <c r="E420" s="9"/>
-      <c r="F420" s="15"/>
-      <c r="G420" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H420" s="43"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="39"/>
       <c r="I420" s="9"/>
-      <c r="J420" s="12"/>
-      <c r="K420" s="15"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40"/>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="39"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="39"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40"/>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="39"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="39"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="41"/>
+      <c r="B423" s="15"/>
+      <c r="C423" s="42"/>
+      <c r="D423" s="43"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="15"/>
+      <c r="G423" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="43"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="12"/>
+      <c r="K423" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11114,18 +11204,16 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
         <v>4</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.5</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11174,7 +11262,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>487.44899999999996</v>
+        <v>484.10399999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
+++ b/REGULAR/CTO/DE GRANO, MA. ERLINDA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="287">
   <si>
     <t>PERIOD</t>
   </si>
@@ -896,6 +896,24 @@
   </si>
   <si>
     <t>UT(0-5-4)</t>
+  </si>
+  <si>
+    <t>UT(0-2-41)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
+  </si>
+  <si>
+    <t>UT(0-3-41)</t>
+  </si>
+  <si>
+    <t>UT(0-6-42)</t>
+  </si>
+  <si>
+    <t>UT(0-3-52)</t>
+  </si>
+  <si>
+    <t>UT(0-5-12)</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1605,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K423"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K429" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K429"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1917,12 +1935,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K423"/>
+  <dimension ref="A2:K429"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A366" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A369" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F383" sqref="F383"/>
+      <selection pane="bottomLeft" activeCell="F381" sqref="F381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2107,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>174.47899999999998</v>
+        <v>169.54299999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10098,31 +10116,31 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B373" s="20"/>
-      <c r="C373" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D373" s="39"/>
+      <c r="A373" s="40"/>
+      <c r="B373" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C373" s="13"/>
+      <c r="D373" s="39">
+        <v>0.65</v>
+      </c>
       <c r="E373" s="9"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H373" s="39"/>
       <c r="I373" s="9"/>
       <c r="J373" s="11"/>
-      <c r="K373" s="20"/>
+      <c r="K373" s="48"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -10140,35 +10158,35 @@
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="48">
-        <v>45016</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B375" s="20"/>
-      <c r="C375" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D375" s="39"/>
+      <c r="A375" s="40"/>
+      <c r="B375" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C375" s="13"/>
+      <c r="D375" s="39">
+        <v>0.48299999999999998</v>
+      </c>
       <c r="E375" s="9"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H375" s="39"/>
       <c r="I375" s="9"/>
       <c r="J375" s="11"/>
-      <c r="K375" s="20"/>
+      <c r="K375" s="48"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C376" s="13">
         <v>1.25</v>
@@ -10186,17 +10204,17 @@
       <c r="I376" s="9"/>
       <c r="J376" s="11"/>
       <c r="K376" s="48">
-        <v>45051</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39">
-        <v>1</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
@@ -10207,70 +10225,66 @@
       <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
-      <c r="K377" s="48">
-        <v>45061</v>
-      </c>
+      <c r="K377" s="48"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="C378" s="13">
         <v>1.25</v>
       </c>
-      <c r="D378" s="39"/>
+      <c r="D378" s="39">
+        <v>0.46</v>
+      </c>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
       <c r="G378" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H378" s="39">
-        <v>2</v>
-      </c>
+      <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="K378" s="20"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
       </c>
-      <c r="D379" s="39"/>
+      <c r="D379" s="39">
+        <v>1</v>
+      </c>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
       <c r="G379" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H379" s="39">
-        <v>1</v>
-      </c>
+      <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
       <c r="K379" s="48">
-        <v>45135</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39">
-        <v>0.63300000000000001</v>
+        <v>1</v>
       </c>
       <c r="E380" s="9"/>
       <c r="F380" s="20"/>
@@ -10281,134 +10295,132 @@
       <c r="H380" s="39"/>
       <c r="I380" s="9"/>
       <c r="J380" s="11"/>
-      <c r="K380" s="48"/>
+      <c r="K380" s="48">
+        <v>45061</v>
+      </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C381" s="13">
-        <v>1.25</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C381" s="13"/>
       <c r="D381" s="39">
-        <v>0.46899999999999997</v>
+        <v>1</v>
       </c>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
-      <c r="K381" s="20"/>
+      <c r="K381" s="48">
+        <v>45058</v>
+      </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C382" s="13">
-        <v>1.25</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="C382" s="13"/>
       <c r="D382" s="39">
-        <v>0.73099999999999998</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
-      <c r="K382" s="20"/>
+      <c r="K382" s="48"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45200</v>
+        <v>45078</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
       </c>
-      <c r="D383" s="39">
-        <v>1</v>
-      </c>
+      <c r="D383" s="39"/>
       <c r="E383" s="9"/>
       <c r="F383" s="20"/>
       <c r="G383" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H383" s="39"/>
+      <c r="H383" s="39">
+        <v>2</v>
+      </c>
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
-      <c r="K383" s="48">
-        <v>45203</v>
+      <c r="K383" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C384" s="13"/>
-      <c r="D384" s="39"/>
+      <c r="D384" s="39">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="E384" s="9"/>
       <c r="F384" s="20"/>
       <c r="G384" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H384" s="39">
-        <v>0.5</v>
-      </c>
+      <c r="H384" s="39"/>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="48">
-        <v>45198</v>
-      </c>
+      <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="40"/>
+      <c r="A385" s="40">
+        <v>45108</v>
+      </c>
       <c r="B385" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C385" s="13"/>
-      <c r="D385" s="39">
-        <v>1</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C385" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D385" s="39"/>
       <c r="E385" s="9"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H385" s="39"/>
+      <c r="G385" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H385" s="39">
+        <v>1</v>
+      </c>
       <c r="I385" s="9"/>
       <c r="J385" s="11"/>
       <c r="K385" s="48">
-        <v>45230</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C386" s="13"/>
       <c r="D386" s="39">
-        <v>0.10800000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E386" s="9"/>
       <c r="F386" s="20"/>
@@ -10423,16 +10435,16 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
       </c>
       <c r="D387" s="39">
-        <v>0.12300000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
@@ -10447,16 +10459,16 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
       </c>
       <c r="D388" s="39">
-        <v>1</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
@@ -10467,35 +10479,39 @@
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
-      <c r="K388" s="48">
-        <v>45273</v>
-      </c>
+      <c r="K388" s="20"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="40"/>
+      <c r="A389" s="40">
+        <v>45200</v>
+      </c>
       <c r="B389" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C389" s="13"/>
+        <v>259</v>
+      </c>
+      <c r="C389" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D389" s="39">
-        <v>1.2810000000000001</v>
+        <v>1</v>
       </c>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G389" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H389" s="39"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="48"/>
+      <c r="K389" s="48">
+        <v>45203</v>
+      </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="49" t="s">
-        <v>273</v>
-      </c>
-      <c r="B390" s="20"/>
+      <c r="A390" s="40"/>
+      <c r="B390" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="C390" s="13"/>
       <c r="D390" s="39"/>
       <c r="E390" s="9"/>
@@ -10504,20 +10520,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H390" s="39"/>
+      <c r="H390" s="39">
+        <v>0.5</v>
+      </c>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
+      <c r="K390" s="48">
+        <v>45198</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C391" s="13"/>
-      <c r="D391" s="39"/>
+      <c r="D391" s="39">
+        <v>1</v>
+      </c>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
       <c r="G391" s="13" t="str">
@@ -10528,16 +10548,18 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="48">
-        <v>45310</v>
+        <v>45230</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B392" s="20"/>
+      <c r="A392" s="40"/>
+      <c r="B392" s="20" t="s">
+        <v>277</v>
+      </c>
       <c r="C392" s="13"/>
-      <c r="D392" s="39"/>
+      <c r="D392" s="39">
+        <v>0.10800000000000001</v>
+      </c>
       <c r="E392" s="9"/>
       <c r="F392" s="20"/>
       <c r="G392" s="13" t="str">
@@ -10547,20 +10569,26 @@
       <c r="H392" s="39"/>
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
-      <c r="K392" s="20"/>
+      <c r="K392" s="48"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B393" s="20"/>
-      <c r="C393" s="13"/>
-      <c r="D393" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B393" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C393" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D393" s="39">
+        <v>0.12300000000000001</v>
+      </c>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H393" s="39"/>
       <c r="I393" s="9"/>
@@ -10569,29 +10597,39 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B394" s="20"/>
-      <c r="C394" s="13"/>
-      <c r="D394" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B394" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C394" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D394" s="39">
+        <v>1</v>
+      </c>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
-      <c r="K394" s="20"/>
+      <c r="K394" s="48">
+        <v>45273</v>
+      </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B395" s="20"/>
+      <c r="A395" s="40"/>
+      <c r="B395" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C395" s="13"/>
-      <c r="D395" s="39"/>
+      <c r="D395" s="39">
+        <v>1.2810000000000001</v>
+      </c>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
       <c r="G395" s="13" t="str">
@@ -10601,11 +10639,11 @@
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
-      <c r="K395" s="20"/>
+      <c r="K395" s="48"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40">
-        <v>45444</v>
+      <c r="A396" s="49" t="s">
+        <v>273</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10623,9 +10661,11 @@
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B397" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B397" s="20" t="s">
+        <v>274</v>
+      </c>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
@@ -10637,11 +10677,13 @@
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="20"/>
+      <c r="K397" s="48">
+        <v>45310</v>
+      </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10659,7 +10701,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10677,7 +10719,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10695,7 +10737,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10713,7 +10755,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10731,7 +10773,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -10749,7 +10791,7 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -10767,7 +10809,7 @@
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -10785,7 +10827,7 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -10803,7 +10845,7 @@
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -10821,7 +10863,7 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -10839,7 +10881,7 @@
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -10857,7 +10899,7 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -10875,7 +10917,7 @@
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -10893,7 +10935,7 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -10911,7 +10953,7 @@
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -10929,7 +10971,7 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -10947,7 +10989,7 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -10965,7 +11007,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
-        <v>46054</v>
+        <v>45870</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -10983,7 +11025,7 @@
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11001,7 +11043,7 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <v>46113</v>
+        <v>45931</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11018,7 +11060,9 @@
       <c r="K418" s="20"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="40"/>
+      <c r="A419" s="40">
+        <v>45962</v>
+      </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -11034,7 +11078,9 @@
       <c r="K419" s="20"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
+      <c r="A420" s="40">
+        <v>45992</v>
+      </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -11050,7 +11096,9 @@
       <c r="K420" s="20"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40"/>
+      <c r="A421" s="40">
+        <v>46023</v>
+      </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -11066,7 +11114,9 @@
       <c r="K421" s="20"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40"/>
+      <c r="A422" s="40">
+        <v>46054</v>
+      </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -11082,20 +11132,120 @@
       <c r="K422" s="20"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="41"/>
-      <c r="B423" s="15"/>
-      <c r="C423" s="42"/>
-      <c r="D423" s="43"/>
+      <c r="A423" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39"/>
       <c r="E423" s="9"/>
-      <c r="F423" s="15"/>
-      <c r="G423" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H423" s="43"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="39"/>
       <c r="I423" s="9"/>
-      <c r="J423" s="12"/>
-      <c r="K423" s="15"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="39"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="39"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="39"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="39"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="40"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="39"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="39"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="40"/>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="39"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H427" s="39"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="40"/>
+      <c r="B428" s="20"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="39"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H428" s="39"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="41"/>
+      <c r="B429" s="15"/>
+      <c r="C429" s="42"/>
+      <c r="D429" s="43"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="15"/>
+      <c r="G429" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H429" s="43"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="12"/>
+      <c r="K429" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11209,11 +11359,11 @@
         <v>5</v>
       </c>
       <c r="F3" s="11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.63300000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -11262,7 +11412,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>484.10399999999998</v>
+        <v>479.16800000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
